--- a/job/2021_Career_model.bk.xlsx
+++ b/job/2021_Career_model.bk.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ma_gespraech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\job\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fachlich Matrix" sheetId="13" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="15" r:id="rId2"/>
-    <sheet name="Softskills" sheetId="14" r:id="rId3"/>
+    <sheet name="Softskills" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -114,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="220">
   <si>
     <t>Kategorie</t>
   </si>
@@ -3598,6 +3597,9 @@
   </si>
   <si>
     <t xml:space="preserve">Softwareentwicklung </t>
+  </si>
+  <si>
+    <t>Boss MB</t>
   </si>
 </sst>
 </file>
@@ -3732,7 +3734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3817,6 +3819,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -4231,7 +4239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4843,6 +4851,13 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 5" xfId="1"/>
@@ -5240,11 +5255,11 @@
   </sheetPr>
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="55.85546875" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5266,6 +5281,7 @@
     <col min="15" max="15" width="84.42578125" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
     <col min="25" max="16384" width="55.85546875" style="3"/>
   </cols>
   <sheetData>
@@ -5279,6 +5295,9 @@
       </c>
       <c r="R2" t="s">
         <v>67</v>
+      </c>
+      <c r="S2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5375,7 +5394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="20.25" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B5" s="157"/>
       <c r="C5" s="159" t="str">
         <f>B6</f>
@@ -5397,7 +5416,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:24" s="1" customFormat="1" ht="49.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" s="1" customFormat="1" ht="49.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="198" t="s">
         <v>16</v>
       </c>
@@ -5433,14 +5452,16 @@
       <c r="R6" s="12">
         <v>5</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="12">
+        <v>5</v>
+      </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="2:24" s="1" customFormat="1" ht="52.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" s="1" customFormat="1" ht="52.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="198"/>
       <c r="C7" s="22" t="s">
         <v>1</v>
@@ -5474,14 +5495,16 @@
       <c r="R7" s="12">
         <v>5</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="12">
+        <v>5</v>
+      </c>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
     </row>
-    <row r="8" spans="2:24" s="1" customFormat="1" ht="66" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" s="1" customFormat="1" ht="66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="198"/>
       <c r="C8" s="24" t="s">
         <v>63</v>
@@ -5515,14 +5538,16 @@
       <c r="R8" s="12">
         <v>5</v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="12">
+        <v>5</v>
+      </c>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="2:24" s="1" customFormat="1" ht="139.15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" s="1" customFormat="1" ht="139.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="199"/>
       <c r="C9" s="22" t="s">
         <v>49</v>
@@ -5556,14 +5581,16 @@
       <c r="R9" s="12">
         <v>4</v>
       </c>
-      <c r="S9" s="12"/>
+      <c r="S9" s="12">
+        <v>4</v>
+      </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
     </row>
-    <row r="10" spans="2:24" ht="20.25" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B10" s="150"/>
       <c r="C10" s="172" t="str">
         <f>B11</f>
@@ -5584,7 +5611,7 @@
       <c r="P10" s="176"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="2:24" s="1" customFormat="1" ht="138.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" s="1" customFormat="1" ht="138.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="200" t="s">
         <v>207</v>
       </c>
@@ -5632,14 +5659,16 @@
       <c r="R11" s="12">
         <v>4</v>
       </c>
-      <c r="S11" s="12"/>
+      <c r="S11" s="12">
+        <v>3</v>
+      </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="2:24" s="1" customFormat="1" ht="151.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" s="1" customFormat="1" ht="151.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="201"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -5673,14 +5702,16 @@
       <c r="R12" s="12">
         <v>3</v>
       </c>
-      <c r="S12" s="12"/>
+      <c r="S12" s="12">
+        <v>4</v>
+      </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="2:24" s="1" customFormat="1" ht="158.44999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" s="1" customFormat="1" ht="158.44999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="201"/>
       <c r="C13" s="17" t="s">
         <v>8</v>
@@ -5714,14 +5745,16 @@
       <c r="R13" s="12">
         <v>3</v>
       </c>
-      <c r="S13" s="12"/>
+      <c r="S13" s="12">
+        <v>3</v>
+      </c>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="2:24" s="1" customFormat="1" ht="139.15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" s="1" customFormat="1" ht="139.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="201"/>
       <c r="C14" s="20" t="s">
         <v>9</v>
@@ -5767,14 +5800,16 @@
       <c r="R14" s="12">
         <v>3</v>
       </c>
-      <c r="S14" s="12"/>
+      <c r="S14" s="12">
+        <v>3</v>
+      </c>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="2:24" s="1" customFormat="1" ht="111" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" s="1" customFormat="1" ht="111" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="201"/>
       <c r="C15" s="17" t="s">
         <v>31</v>
@@ -5808,14 +5843,16 @@
       <c r="R15" s="12">
         <v>3</v>
       </c>
-      <c r="S15" s="12"/>
+      <c r="S15" s="12">
+        <v>3</v>
+      </c>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="2:24" s="1" customFormat="1" ht="111" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" s="1" customFormat="1" ht="111" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="201"/>
       <c r="C16" s="19" t="s">
         <v>209</v>
@@ -5849,14 +5886,16 @@
       <c r="R16" s="12">
         <v>3</v>
       </c>
-      <c r="S16" s="12"/>
+      <c r="S16" s="12">
+        <v>3</v>
+      </c>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" ht="109.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="109.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="202"/>
       <c r="C17" s="17" t="s">
         <v>45</v>
@@ -5890,14 +5929,16 @@
       <c r="R17" s="12">
         <v>3</v>
       </c>
-      <c r="S17" s="12"/>
+      <c r="S17" s="12">
+        <v>4</v>
+      </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:24" ht="20.25" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B18" s="164"/>
       <c r="C18" s="165" t="str">
         <f>B19</f>
@@ -5917,7 +5958,7 @@
       <c r="O18" s="173"/>
       <c r="P18" s="174"/>
     </row>
-    <row r="19" spans="1:24" s="2" customFormat="1" ht="228" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="2" customFormat="1" ht="228" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="206" t="s">
         <v>206</v>
@@ -5966,14 +6007,16 @@
       <c r="R19" s="12">
         <v>3</v>
       </c>
-      <c r="S19" s="12"/>
+      <c r="S19" s="12">
+        <v>3</v>
+      </c>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" s="2" customFormat="1" ht="120" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="2" customFormat="1" ht="120" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="207"/>
       <c r="C20" s="194" t="s">
@@ -6020,14 +6063,16 @@
       <c r="R20" s="12">
         <v>3</v>
       </c>
-      <c r="S20" s="12"/>
+      <c r="S20" s="12">
+        <v>3</v>
+      </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" s="2" customFormat="1" ht="102.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="2" customFormat="1" ht="102.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="207"/>
       <c r="C21" s="44" t="s">
@@ -6062,14 +6107,16 @@
       <c r="R21" s="12">
         <v>3</v>
       </c>
-      <c r="S21" s="12"/>
+      <c r="S21" s="12">
+        <v>2</v>
+      </c>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:24" s="2" customFormat="1" ht="92.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="2" customFormat="1" ht="92.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="207"/>
       <c r="C22" s="194" t="s">
@@ -6116,14 +6163,16 @@
       <c r="R22" s="12">
         <v>3</v>
       </c>
-      <c r="S22" s="12"/>
+      <c r="S22" s="12">
+        <v>3</v>
+      </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:24" s="2" customFormat="1" ht="121.15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="2" customFormat="1" ht="121.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="207"/>
       <c r="C23" s="191" t="s">
@@ -6170,14 +6219,16 @@
       <c r="R23" s="12">
         <v>4</v>
       </c>
-      <c r="S23" s="12"/>
+      <c r="S23" s="12">
+        <v>3</v>
+      </c>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" s="2" customFormat="1" ht="141" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="2" customFormat="1" ht="141" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="208"/>
       <c r="C24" s="39" t="s">
@@ -6212,14 +6263,16 @@
       <c r="R24" s="12">
         <v>3</v>
       </c>
-      <c r="S24" s="12"/>
+      <c r="S24" s="12">
+        <v>4</v>
+      </c>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" ht="20.25" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B25" s="168"/>
       <c r="C25" s="169" t="str">
         <f>B26</f>
@@ -6239,7 +6292,7 @@
       <c r="O25" s="122"/>
       <c r="P25" s="121"/>
     </row>
-    <row r="26" spans="1:24" ht="312.60000000000002" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="312.60000000000002" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="203" t="s">
         <v>5</v>
       </c>
@@ -6347,14 +6400,16 @@
         <f>Softskills!C17</f>
         <v>3</v>
       </c>
-      <c r="S26" s="12"/>
+      <c r="S26" s="12">
+        <v>2</v>
+      </c>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" ht="214.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="214.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="204"/>
       <c r="C27" s="49" t="s">
         <v>211</v>
@@ -6433,14 +6488,16 @@
         <f>Softskills!C29</f>
         <v>4</v>
       </c>
-      <c r="S27" s="12"/>
+      <c r="S27" s="12">
+        <v>3</v>
+      </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="233.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="233.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="204"/>
       <c r="C28" s="57" t="s">
         <v>14</v>
@@ -6526,14 +6583,16 @@
         <f>Softskills!C40</f>
         <v>5</v>
       </c>
-      <c r="S28" s="12"/>
+      <c r="S28" s="12">
+        <v>5</v>
+      </c>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="181.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="181.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="204"/>
       <c r="C29" s="49" t="s">
         <v>29</v>
@@ -6607,14 +6666,16 @@
         <f>Softskills!C50</f>
         <v>4</v>
       </c>
-      <c r="S29" s="12"/>
+      <c r="S29" s="12">
+        <v>3</v>
+      </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="168.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="168.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="204"/>
       <c r="C30" s="57" t="s">
         <v>15</v>
@@ -6696,14 +6757,16 @@
         <f>Softskills!C60</f>
         <v>4</v>
       </c>
-      <c r="S30" s="12"/>
+      <c r="S30" s="12">
+        <v>5</v>
+      </c>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" ht="228.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="228.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="205"/>
       <c r="C31" s="49" t="s">
         <v>190</v>
@@ -6777,7 +6840,9 @@
         <f>Softskills!C71</f>
         <v>3</v>
       </c>
-      <c r="S31" s="12"/>
+      <c r="S31" s="12">
+        <v>2</v>
+      </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
@@ -6856,23 +6921,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6882,7 +6935,7 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="66.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A1" s="177" t="s">
         <v>69</v>
       </c>
@@ -6892,8 +6945,11 @@
       <c r="C1" s="179" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="190" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="190" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="190" t="s">
         <v>13</v>
       </c>
@@ -6903,8 +6959,11 @@
       <c r="C2" s="190">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6914,8 +6973,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6925,8 +6987,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6936,8 +7001,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6947,8 +7015,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6958,38 +7029,44 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="209" t="s">
         <v>78</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="209" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="209" t="s">
         <v>80</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6997,18 +7074,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="209" t="s">
         <v>82</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7016,29 +7093,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="209" t="s">
         <v>84</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="209" t="s">
         <v>85</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="181" t="s">
         <v>86</v>
       </c>
@@ -7048,7 +7125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="184" t="s">
         <v>87</v>
       </c>
@@ -7058,18 +7135,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="209" t="s">
         <v>88</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -7077,7 +7154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -7087,8 +7164,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -7098,8 +7178,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -7107,7 +7190,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -7117,8 +7200,11 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>211</v>
       </c>
@@ -7128,8 +7214,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -7139,8 +7228,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -7148,7 +7240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -7158,8 +7250,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="181" t="s">
         <v>215</v>
       </c>
@@ -7169,7 +7264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="184" t="s">
         <v>216</v>
       </c>
@@ -7179,7 +7274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -7189,8 +7284,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -7200,8 +7298,11 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -7211,8 +7312,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -7222,8 +7326,11 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -7233,16 +7340,22 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="209" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -7252,19 +7365,22 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="209" t="s">
         <v>105</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -7274,8 +7390,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="181" t="s">
         <v>107</v>
       </c>
@@ -7285,7 +7404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="184" t="s">
         <v>108</v>
       </c>
@@ -7295,37 +7414,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="209" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="197">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="209" t="s">
         <v>110</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="209" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -7335,8 +7457,11 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -7346,8 +7471,11 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -7357,8 +7485,11 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -7366,7 +7497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -7376,8 +7507,11 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="181" t="s">
         <v>117</v>
       </c>
@@ -7387,7 +7521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="184" t="s">
         <v>118</v>
       </c>
@@ -7397,15 +7531,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="209" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -7415,8 +7552,11 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -7426,19 +7566,22 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="180" t="s">
+      <c r="B54" s="209" t="s">
         <v>122</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -7448,8 +7591,11 @@
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7459,8 +7605,11 @@
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="189" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="189" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="189" t="s">
         <v>15</v>
       </c>
@@ -7470,16 +7619,22 @@
       <c r="C57" s="189">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="189" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D57" s="189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="189" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="189" t="s">
+      <c r="B58" s="210" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>126</v>
       </c>
@@ -7489,7 +7644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="184" t="s">
         <v>127</v>
       </c>
@@ -7499,7 +7654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -7507,7 +7662,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -7515,29 +7670,29 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="211" t="s">
         <v>197</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="211" t="s">
         <v>198</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -7547,8 +7702,11 @@
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -7558,8 +7716,11 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -7567,15 +7728,18 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="211" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -7585,8 +7749,11 @@
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="181" t="s">
         <v>204</v>
       </c>
@@ -7596,7 +7763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="184" t="s">
         <v>205</v>
       </c>
@@ -7606,7 +7773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="187"/>
     </row>
   </sheetData>
